--- a/Documents/TestCases/FTC_AccessManagementFramework.xlsx
+++ b/Documents/TestCases/FTC_AccessManagementFramework.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE9FE87-0C0C-4C2B-9AA9-5B644D3D3D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="477"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="477" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="VersionHistory" sheetId="4" r:id="rId1"/>
+    <sheet name="Index" sheetId="5" r:id="rId2"/>
+    <sheet name="FRS.4.3.1.Member Management " sheetId="1" r:id="rId3"/>
+    <sheet name="Lookups" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="TestResult">Lookups!$A$2:$A$3</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>TCNO.</t>
   </si>
@@ -27,9 +32,6 @@
     <t>TC Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Test Environment </t>
-  </si>
-  <si>
     <t>Test Data</t>
   </si>
   <si>
@@ -42,24 +44,9 @@
     <t>TC01</t>
   </si>
   <si>
-    <t xml:space="preserve">Development </t>
-  </si>
-  <si>
     <t>Valid Member Registration</t>
   </si>
   <si>
-    <t>Member Details:</t>
-  </si>
-  <si>
-    <t>1.Name</t>
-  </si>
-  <si>
-    <t>2.Email</t>
-  </si>
-  <si>
-    <t>3.Password,etc.</t>
-  </si>
-  <si>
     <t>• Full name:[Enter a Valid full name]</t>
   </si>
   <si>
@@ -106,13 +93,101 @@
   </si>
   <si>
     <t>4. Check the Email associated with the registered Email address for the OTP.</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>Tested By</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmailId: </t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Updated By</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRS: 4.3.1.1
+</t>
+  </si>
+  <si>
+    <t>Test Case Version</t>
+  </si>
+  <si>
+    <t>Version Date</t>
+  </si>
+  <si>
+    <t>Update Info</t>
+  </si>
+  <si>
+    <t>Test Application Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Application Environment </t>
+  </si>
+  <si>
+    <t>Version No</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Reviewed By</t>
+  </si>
+  <si>
+    <t>Reviewed On</t>
+  </si>
+  <si>
+    <t>Approved By</t>
+  </si>
+  <si>
+    <t>Approved On</t>
+  </si>
+  <si>
+    <t>Approval Comments</t>
+  </si>
+  <si>
+    <t>Review Comments</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Descripton</t>
+  </si>
+  <si>
+    <t>FRS.4.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member Management </t>
+  </si>
+  <si>
+    <t>Functional Test Cases for Member Management</t>
+  </si>
+  <si>
+    <t>TestResult</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,16 +209,30 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -166,62 +255,599 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E4D6E15-9B02-4FD6-BC15-E884299FFE22}" name="Table1" displayName="Table1" ref="B2:J5" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="22" tableBorderDxfId="23" totalsRowBorderDxfId="21">
+  <autoFilter ref="B2:J5" xr:uid="{1E4D6E15-9B02-4FD6-BC15-E884299FFE22}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{97196B21-073D-4985-A1EE-0CF5A3429585}" name="Version No" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{39D494BF-2E36-4022-A977-2B1BFA685571}" name="Version Date" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{96E85613-B9E0-4064-A299-0F7DD7201FC4}" name="Author" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{371BCA44-501D-450B-AED7-AB91B367E549}" name="Reviewed By" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{6195C22E-CA1E-441F-80F5-0F1AD5C7E693}" name="Reviewed On" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{841B3943-2638-48C4-9B56-D5DE603C1B62}" name="Review Comments" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{7FBBA5A5-9B89-429B-95BC-7FA7D050DE99}" name="Approved By" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{6D6CC72E-4CE0-48D4-881B-BF7D7B826C49}" name="Approved On" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{9A9F3C6B-CD44-464F-891F-5672C33A430D}" name="Approval Comments" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CF898CAC-D6B7-4825-9F82-C8E1EA203963}" name="Table2" displayName="Table2" ref="B2:D4" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="B2:D4" xr:uid="{CF898CAC-D6B7-4825-9F82-C8E1EA203963}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8E99B82D-8394-444D-9F25-AEF8B864BF3D}" name="Reference" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{82CC2314-2F94-4F98-9A13-DD82525AC9B9}" name="Title" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{58BACB62-8674-4DBD-989B-3B761937822F}" name="Descripton" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -259,7 +885,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -331,7 +957,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -504,259 +1130,525 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1F3288-D7FC-48B0-888D-3F191CCD9DFC}">
+  <dimension ref="B2:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="28"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="29"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77C20C3-DDC3-4FB5-8C1B-EA8BD684393E}">
+  <dimension ref="B2:D4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="39"/>
+    <col min="2" max="2" width="28.109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" style="39" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" s="39" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="'FRS.4.3.1.Member Management '!A1" display="FRS.4.3.1" xr:uid="{6AEF0EA6-1A85-49AD-BC70-492E2B0F7801}"/>
+    <hyperlink ref="C3" location="'FRS.4.3.1.Member Management '!A1" display="Member Management " xr:uid="{A6CB190D-89F4-4179-B74C-55279E3823DA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
     <col min="6" max="6" width="58.21875" customWidth="1"/>
     <col min="7" max="7" width="48.44140625" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="6.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="13" width="12.5546875" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="15">
+        <v>45239</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7">
-        <v>45239</v>
-      </c>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="M9:M18"/>
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="C9:C18"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="N9:N18"/>
+    <mergeCell ref="E9:E18"/>
+    <mergeCell ref="D9:D18"/>
+    <mergeCell ref="J9:J18"/>
+    <mergeCell ref="K9:K18"/>
+    <mergeCell ref="L9:L18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I9:I18">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I18" xr:uid="{4D8B8E53-8CF7-42FD-8FD9-D53B665BBF30}">
+      <formula1>TestResult</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/TestCases/FTC_AccessManagementFramework.xlsx
+++ b/Documents/TestCases/FTC_AccessManagementFramework.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE9FE87-0C0C-4C2B-9AA9-5B644D3D3D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="477" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="477" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VersionHistory" sheetId="4" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>TCNO.</t>
   </si>
@@ -47,36 +46,15 @@
     <t>Valid Member Registration</t>
   </si>
   <si>
-    <t>• Full name:[Enter a Valid full name]</t>
-  </si>
-  <si>
-    <t>•Email Address:[Enter a valid and unique Email address]</t>
-  </si>
-  <si>
     <t>Actual Results</t>
   </si>
   <si>
-    <t>•Confirm Password:[Re-Enter the same password]</t>
-  </si>
-  <si>
-    <t>1. Navigate to a member registration page.</t>
-  </si>
-  <si>
-    <t>2. Fill in the registration form with valid member information.</t>
-  </si>
-  <si>
     <t>3. Click the "Register" or "Sign Up" button.</t>
   </si>
   <si>
     <t xml:space="preserve">Test the successful registration of a new member with valid information. </t>
   </si>
   <si>
-    <t>The member is successfully registered, and the system redirects to the member dashbord or a confirmation page.</t>
-  </si>
-  <si>
-    <t>•Password:[Enter a valid password that meets the password policy]</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -99,9 +77,6 @@
   </si>
   <si>
     <t>Tested By</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EmailId: </t>
   </si>
   <si>
     <t>Created By</t>
@@ -181,12 +156,76 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Nikita Jena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikita Jena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Access to registration page through a URL. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Id: </t>
+  </si>
+  <si>
+    <t>2. Fill in the registration form with valid Email ID.</t>
+  </si>
+  <si>
+    <t>Test Case Steps</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRS: 4.3.1.2
+</t>
+  </si>
+  <si>
+    <t>Manage Member Information</t>
+  </si>
+  <si>
+    <t>Test to allows user's to manage member information.</t>
+  </si>
+  <si>
+    <t>Existing Member Account</t>
+  </si>
+  <si>
+    <t>1. Login and navigate to the member management section.</t>
+  </si>
+  <si>
+    <t>2. Click "Edit".</t>
+  </si>
+  <si>
+    <t>3. Update the member information.</t>
+  </si>
+  <si>
+    <t>4. Save changes and verify the confirmation.</t>
+  </si>
+  <si>
+    <t>1. The member is successfully registered, and the system redirects to the member dashbord or a confirmation page.</t>
+  </si>
+  <si>
+    <t>2. A user profile is created with the provided information.</t>
+  </si>
+  <si>
+    <t>1. Member information is successfully updated.</t>
+  </si>
+  <si>
+    <t>2. Confirmation through a message.</t>
+  </si>
+  <si>
+    <t>3. Updated information is reflected when reviewing the member details.</t>
+  </si>
+  <si>
+    <t>FRS.4.3.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -362,20 +401,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -389,58 +466,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -466,31 +492,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill>
@@ -506,19 +611,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -580,38 +672,32 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -780,6 +866,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -787,18 +882,21 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -815,39 +913,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E4D6E15-9B02-4FD6-BC15-E884299FFE22}" name="Table1" displayName="Table1" ref="B2:J5" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="22" tableBorderDxfId="23" totalsRowBorderDxfId="21">
-  <autoFilter ref="B2:J5" xr:uid="{1E4D6E15-9B02-4FD6-BC15-E884299FFE22}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:J5" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="B2:J5"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{97196B21-073D-4985-A1EE-0CF5A3429585}" name="Version No" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{39D494BF-2E36-4022-A977-2B1BFA685571}" name="Version Date" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{96E85613-B9E0-4064-A299-0F7DD7201FC4}" name="Author" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{371BCA44-501D-450B-AED7-AB91B367E549}" name="Reviewed By" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{6195C22E-CA1E-441F-80F5-0F1AD5C7E693}" name="Reviewed On" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{841B3943-2638-48C4-9B56-D5DE603C1B62}" name="Review Comments" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{7FBBA5A5-9B89-429B-95BC-7FA7D050DE99}" name="Approved By" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{6D6CC72E-4CE0-48D4-881B-BF7D7B826C49}" name="Approved On" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{9A9F3C6B-CD44-464F-891F-5672C33A430D}" name="Approval Comments" dataDxfId="12"/>
+    <tableColumn id="1" name="Version No" dataDxfId="18"/>
+    <tableColumn id="2" name="Version Date" dataDxfId="17"/>
+    <tableColumn id="3" name="Author" dataDxfId="16"/>
+    <tableColumn id="4" name="Reviewed By" dataDxfId="15"/>
+    <tableColumn id="5" name="Reviewed On" dataDxfId="14"/>
+    <tableColumn id="6" name="Review Comments" dataDxfId="13"/>
+    <tableColumn id="7" name="Approved By" dataDxfId="12"/>
+    <tableColumn id="8" name="Approved On" dataDxfId="11"/>
+    <tableColumn id="9" name="Approval Comments" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CF898CAC-D6B7-4825-9F82-C8E1EA203963}" name="Table2" displayName="Table2" ref="B2:D4" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
-  <autoFilter ref="B2:D4" xr:uid="{CF898CAC-D6B7-4825-9F82-C8E1EA203963}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:D4" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="B2:D4"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8E99B82D-8394-444D-9F25-AEF8B864BF3D}" name="Reference" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{82CC2314-2F94-4F98-9A13-DD82525AC9B9}" name="Title" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{58BACB62-8674-4DBD-989B-3B761937822F}" name="Descripton" dataDxfId="5"/>
+    <tableColumn id="1" name="Reference" dataDxfId="4"/>
+    <tableColumn id="2" name="Title" dataDxfId="3"/>
+    <tableColumn id="3" name="Descripton" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -885,7 +983,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -957,7 +1055,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1130,11 +1228,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1F3288-D7FC-48B0-888D-3F191CCD9DFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1151,66 +1249,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>42</v>
+      <c r="I2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="29"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="35"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1221,53 +1319,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77C20C3-DDC3-4FB5-8C1B-EA8BD684393E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="39"/>
-    <col min="2" max="2" width="28.109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" style="39" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="39"/>
+    <col min="1" max="1" width="8.88671875" style="21"/>
+    <col min="2" max="2" width="28.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" s="39" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" location="'FRS.4.3.1.Member Management '!A1" display="FRS.4.3.1" xr:uid="{6AEF0EA6-1A85-49AD-BC70-492E2B0F7801}"/>
-    <hyperlink ref="C3" location="'FRS.4.3.1.Member Management '!A1" display="Member Management " xr:uid="{A6CB190D-89F4-4179-B74C-55279E3823DA}"/>
+    <hyperlink ref="B3" location="'FRS.4.3.1.Member Management '!A1" display="FRS.4.3.1"/>
+    <hyperlink ref="C3" location="'FRS.4.3.1.Member Management '!A1" display="Member Management "/>
+    <hyperlink ref="B4" location="'FRS.4.3.1.Member Management '!A1" display="FRS.4.3.1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1277,80 +1378,81 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
     <col min="4" max="4" width="30.33203125" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="6" width="58.21875" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" customWidth="1"/>
+    <col min="6" max="6" width="55" customWidth="1"/>
+    <col min="7" max="7" width="48" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="13" width="12.5546875" customWidth="1"/>
+    <col min="10" max="12" width="12.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="4"/>
+      <c r="A1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
+      <c r="A2" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
@@ -1368,250 +1470,322 @@
         <v>5</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="37">
+        <v>45239</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="37">
+        <v>45240</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+    </row>
+    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="15">
-        <v>45239</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-    </row>
-    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+    </row>
+    <row r="15" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="45"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="54">
+        <v>45240</v>
+      </c>
+      <c r="K16" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="54"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+    </row>
+    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="26">
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="K16:K20"/>
+    <mergeCell ref="L16:L20"/>
+    <mergeCell ref="M16:M20"/>
+    <mergeCell ref="N16:N20"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="N9:N15"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="J9:J15"/>
+    <mergeCell ref="K9:K15"/>
+    <mergeCell ref="L9:L15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="M9:M18"/>
-    <mergeCell ref="A9:A18"/>
-    <mergeCell ref="C9:C18"/>
+    <mergeCell ref="M9:M15"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="C9:C15"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="N9:N18"/>
-    <mergeCell ref="E9:E18"/>
-    <mergeCell ref="D9:D18"/>
-    <mergeCell ref="J9:J18"/>
-    <mergeCell ref="K9:K18"/>
-    <mergeCell ref="L9:L18"/>
+    <mergeCell ref="B9:B15"/>
   </mergeCells>
-  <conditionalFormatting sqref="I9:I18">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="I9:I20">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I18" xr:uid="{4D8B8E53-8CF7-42FD-8FD9-D53B665BBF30}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I20">
       <formula1>TestResult</formula1>
     </dataValidation>
   </dataValidations>
@@ -1621,11 +1795,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1634,18 +1808,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
-        <v>50</v>
+      <c r="A1" s="24" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>51</v>
+      <c r="A2" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>52</v>
+      <c r="A3" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
